--- a/biology/Médecine/Georges_Heuyer/Georges_Heuyer.xlsx
+++ b/biology/Médecine/Georges_Heuyer/Georges_Heuyer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Georges Jean Baptiste Heuyer, né le 30 janvier 1884 à Pacy-sur-Eure[1] et mort le 23 octobre 1977 en son domicile dans le 7e arrondissement de Paris[2], est médecin, professeur à la faculté de médecine de Paris et membre de l'Académie nationale de Médecine[3]. Il est le fondateur en France de la pédopsychiatrie.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Georges Jean Baptiste Heuyer, né le 30 janvier 1884 à Pacy-sur-Eure et mort le 23 octobre 1977 en son domicile dans le 7e arrondissement de Paris, est médecin, professeur à la faculté de médecine de Paris et membre de l'Académie nationale de Médecine. Il est le fondateur en France de la pédopsychiatrie.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils du médecin militaire Louis Heuyer (1847-1930). Il soutient en 1914 une thèse de doctorat en médecine intitulée 
-Enfants anormaux et délinquants juvéniles : nécessité de l'examen psychiatrique des écoliers[4]. En 1948, il est nommé à la chaire de neuropsychiatrie infantile.
+Enfants anormaux et délinquants juvéniles : nécessité de l'examen psychiatrique des écoliers. En 1948, il est nommé à la chaire de neuropsychiatrie infantile.
 Sans être lui-même psychanalyste il fut le premier à avoir introduit la psychanalyse en milieu hospitalier avec Eugénie Sokolnicka (qu'il rencontre grâce à l'écrivain Paul Bourget) puis Sophie Morgenstern à qui il a confié un laboratoire de psychanalyse. Il a beaucoup écrit sur la pédopsychiatrie (dix ouvrages et plus de cent publications).
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Commandeur de la Légion d'honneur</t>
         </is>
@@ -574,7 +590,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Enfants anormaux et délinquants juvéniles. Nécessité de l'examen psychiatrique des écoliers, 1914
 Assistance aux enfants anormaux. Création d'une consultation de neuro-psychiatrie infantile, 1925
